--- a/DataSets/eda.xlsx
+++ b/DataSets/eda.xlsx
@@ -99,28 +99,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,32 +406,35 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="11.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="16.88671875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -438,19 +442,19 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>36425</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>45473</v>
       </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="1"/>
@@ -459,19 +463,19 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>36425</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>45473</v>
       </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
@@ -480,19 +484,19 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>36425</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>45472</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
@@ -501,19 +505,19 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>36425</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>45472</v>
       </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
@@ -522,19 +526,19 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>36425</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>45471</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
@@ -543,19 +547,19 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>36425</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>45471</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
@@ -564,19 +568,19 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>36425</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>45471</v>
       </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
@@ -585,19 +589,19 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>36425</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>45471</v>
       </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="1"/>
@@ -606,19 +610,19 @@
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>36425</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>45469</v>
       </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="1"/>
@@ -627,19 +631,19 @@
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>36425</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>45469</v>
       </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="1"/>
@@ -648,19 +652,19 @@
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>36425</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>45466</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="1"/>
@@ -669,19 +673,19 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>36425</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>45466</v>
       </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="1"/>
@@ -690,19 +694,19 @@
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>36425</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>45466</v>
       </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="1"/>
@@ -711,19 +715,19 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>36425</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>45463</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="1"/>
@@ -732,19 +736,19 @@
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>36425</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>45457</v>
       </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="1"/>
@@ -753,19 +757,19 @@
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>36425</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>45457</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="1"/>
@@ -774,19 +778,19 @@
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>36425</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>45457</v>
       </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="1"/>
@@ -795,19 +799,19 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>36425</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>45452</v>
       </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="1"/>
@@ -816,19 +820,19 @@
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>36425</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>45452</v>
       </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="1"/>
@@ -837,19 +841,19 @@
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>36425</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>45452</v>
       </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="1"/>
@@ -858,19 +862,19 @@
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>36425</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>45452</v>
       </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="1"/>
@@ -879,19 +883,19 @@
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>36425</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>45452</v>
       </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
@@ -900,19 +904,19 @@
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>36425</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>45449</v>
       </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="1"/>
@@ -921,19 +925,19 @@
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>36425</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>45449</v>
       </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="1"/>
@@ -942,19 +946,19 @@
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>36425</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>45449</v>
       </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="1"/>
@@ -963,19 +967,19 @@
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>36425</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>45449</v>
       </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" s="1"/>
@@ -984,19 +988,19 @@
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>36425</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>45447</v>
       </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="1"/>
@@ -1005,19 +1009,19 @@
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>36425</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>45447</v>
       </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="1"/>
@@ -1026,19 +1030,19 @@
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>36425</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>45447</v>
       </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="1"/>
@@ -1047,19 +1051,19 @@
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>36425</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>45441</v>
       </c>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="1"/>
@@ -1068,19 +1072,19 @@
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>36425</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>45439</v>
       </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" s="1"/>
@@ -1089,19 +1093,19 @@
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>36425</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>45435</v>
       </c>
-      <c r="E33" s="3">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="1"/>
@@ -1110,19 +1114,19 @@
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>36425</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>45433</v>
       </c>
-      <c r="E34" s="3">
-        <v>3</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="1"/>
@@ -1131,19 +1135,19 @@
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>36425</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>45429</v>
       </c>
-      <c r="E35" s="3">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="1"/>
@@ -1152,19 +1156,19 @@
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>36425</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>45422</v>
       </c>
-      <c r="E36" s="3">
-        <v>3</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="1"/>
@@ -1173,19 +1177,19 @@
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>36425</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>45422</v>
       </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="1"/>
@@ -1194,19 +1198,19 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>36425</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>45408</v>
       </c>
-      <c r="E38" s="3">
-        <v>3</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="1"/>
@@ -1215,19 +1219,19 @@
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>36425</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>45408</v>
       </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="1"/>
@@ -1236,19 +1240,19 @@
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>36425</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>45407</v>
       </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="1"/>
@@ -1257,19 +1261,19 @@
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>36425</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>45406</v>
       </c>
-      <c r="E41" s="3">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="1"/>
@@ -1278,19 +1282,19 @@
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>36425</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>45405</v>
       </c>
-      <c r="E42" s="3">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
         <v>1</v>
       </c>
       <c r="G42" s="1"/>
@@ -1299,19 +1303,19 @@
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>36425</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>45404</v>
       </c>
-      <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="1"/>
@@ -1320,19 +1324,19 @@
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>36425</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>45404</v>
       </c>
-      <c r="E44" s="3">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="1"/>
@@ -1341,19 +1345,19 @@
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>36425</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>45404</v>
       </c>
-      <c r="E45" s="3">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" s="1"/>
@@ -1362,19 +1366,19 @@
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>36425</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>45400</v>
       </c>
-      <c r="E46" s="3">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" s="1"/>
@@ -1383,19 +1387,19 @@
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>36425</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>45386</v>
       </c>
-      <c r="E47" s="3">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
         <v>1</v>
       </c>
       <c r="G47" s="1"/>
@@ -1404,19 +1408,19 @@
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>36425</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>45377</v>
       </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2">
         <v>1</v>
       </c>
       <c r="G48" s="1"/>
@@ -1425,19 +1429,19 @@
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>36425</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>45377</v>
       </c>
-      <c r="E49" s="3">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="1"/>
@@ -1446,19 +1450,19 @@
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>36425</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>45376</v>
       </c>
-      <c r="E50" s="3">
-        <v>3</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="2">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="1"/>
@@ -1467,19 +1471,19 @@
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>36425</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>45373</v>
       </c>
-      <c r="E51" s="3">
-        <v>3</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="1"/>
@@ -1488,19 +1492,19 @@
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>36425</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>45373</v>
       </c>
-      <c r="E52" s="3">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
         <v>1</v>
       </c>
       <c r="G52" s="1"/>
@@ -1509,19 +1513,19 @@
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>36425</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>45373</v>
       </c>
-      <c r="E53" s="3">
-        <v>3</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="1"/>
@@ -1530,19 +1534,19 @@
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>36425</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>45364</v>
       </c>
-      <c r="E54" s="3">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" s="1"/>
@@ -1551,19 +1555,19 @@
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>36425</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>45356</v>
       </c>
-      <c r="E55" s="3">
-        <v>3</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2">
         <v>1</v>
       </c>
       <c r="G55" s="1"/>
@@ -1572,19 +1576,19 @@
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>36425</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>45356</v>
       </c>
-      <c r="E56" s="3">
-        <v>3</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="G56" s="1"/>
@@ -1593,19 +1597,19 @@
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>36425</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>45348</v>
       </c>
-      <c r="E57" s="3">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="1"/>
@@ -1614,19 +1618,19 @@
       <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>36425</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>45337</v>
       </c>
-      <c r="E58" s="3">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2">
         <v>1</v>
       </c>
       <c r="G58" s="1"/>
@@ -1635,250 +1639,250 @@
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>36425</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>45337</v>
       </c>
-      <c r="E59" s="3">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="2">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2">
         <v>1</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="8">
+      <c r="A60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
         <v>45335</v>
       </c>
-      <c r="E60" s="9">
-        <v>3</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="5">
+        <v>3</v>
+      </c>
+      <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
         <v>45335</v>
       </c>
-      <c r="E61" s="9">
-        <v>3</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E61" s="5">
+        <v>3</v>
+      </c>
+      <c r="F61" s="5">
         <v>1</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
         <v>45335</v>
       </c>
-      <c r="E62" s="9">
-        <v>3</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="E62" s="5">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5">
         <v>1</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="A63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
         <v>45335</v>
       </c>
-      <c r="E63" s="9">
-        <v>3</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="E63" s="5">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5">
         <v>1</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="A64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7">
         <v>45335</v>
       </c>
-      <c r="E64" s="9">
-        <v>3</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="E64" s="5">
+        <v>3</v>
+      </c>
+      <c r="F64" s="5">
         <v>1</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7">
         <v>45335</v>
       </c>
-      <c r="E65" s="9">
-        <v>3</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="5">
+        <v>3</v>
+      </c>
+      <c r="F65" s="5">
         <v>1</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="A66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
         <v>45335</v>
       </c>
-      <c r="E66" s="9">
-        <v>3</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
         <v>1</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="A67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
         <v>45335</v>
       </c>
-      <c r="E67" s="9">
-        <v>3</v>
-      </c>
-      <c r="F67" s="9">
+      <c r="E67" s="5">
+        <v>3</v>
+      </c>
+      <c r="F67" s="5">
         <v>1</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="A68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
         <v>45335</v>
       </c>
-      <c r="E68" s="9">
-        <v>3</v>
-      </c>
-      <c r="F68" s="9">
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="A69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
         <v>45335</v>
       </c>
-      <c r="E69" s="9">
-        <v>3</v>
-      </c>
-      <c r="F69" s="9">
+      <c r="E69" s="5">
+        <v>3</v>
+      </c>
+      <c r="F69" s="5">
         <v>1</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="7">
-        <v>36425</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="8">
+      <c r="A70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="6">
+        <v>36425</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7">
         <v>45335</v>
       </c>
-      <c r="E70" s="9">
-        <v>3</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E70" s="5">
+        <v>3</v>
+      </c>
+      <c r="F70" s="5">
         <v>1</v>
       </c>
       <c r="G70" s="1"/>
@@ -1887,19 +1891,19 @@
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>36425</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>45317</v>
       </c>
-      <c r="E71" s="3">
-        <v>3</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
         <v>1</v>
       </c>
       <c r="G71" s="1"/>
@@ -1908,19 +1912,19 @@
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>36425</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>45311</v>
       </c>
-      <c r="E72" s="3">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" s="1"/>
@@ -1929,19 +1933,19 @@
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>36425</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>45302</v>
       </c>
-      <c r="E73" s="3">
-        <v>3</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="1"/>
@@ -1950,19 +1954,19 @@
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>36425</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>45302</v>
       </c>
-      <c r="E74" s="3">
-        <v>3</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" s="1"/>
@@ -1971,19 +1975,19 @@
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>36425</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>45302</v>
       </c>
-      <c r="E75" s="3">
-        <v>3</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" s="2">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" s="1"/>
@@ -1992,19 +1996,19 @@
       <c r="A76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>36425</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>45302</v>
       </c>
-      <c r="E76" s="3">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" s="2">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="1"/>
@@ -2013,19 +2017,19 @@
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>36425</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>45271</v>
       </c>
-      <c r="E77" s="3">
-        <v>3</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" s="2">
+        <v>3</v>
+      </c>
+      <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" s="1"/>
@@ -2034,19 +2038,19 @@
       <c r="A78" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>36425</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>45270</v>
       </c>
-      <c r="E78" s="3">
-        <v>3</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+      <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="1"/>
@@ -2055,19 +2059,19 @@
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>36425</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>45270</v>
       </c>
-      <c r="E79" s="3">
-        <v>3</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" s="2">
+        <v>3</v>
+      </c>
+      <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="1"/>
@@ -2076,19 +2080,19 @@
       <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>36425</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>45270</v>
       </c>
-      <c r="E80" s="3">
-        <v>3</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80" s="2">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="1"/>
@@ -2097,19 +2101,19 @@
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>36425</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>45258</v>
       </c>
-      <c r="E81" s="3">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="1"/>
@@ -2118,19 +2122,19 @@
       <c r="A82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>36425</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>45247</v>
       </c>
-      <c r="E82" s="3">
-        <v>3</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" s="1"/>
@@ -2139,19 +2143,19 @@
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>36425</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>45247</v>
       </c>
-      <c r="E83" s="3">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" s="1"/>
@@ -2160,19 +2164,19 @@
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>36425</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>45247</v>
       </c>
-      <c r="E84" s="3">
-        <v>3</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="1"/>
@@ -2181,19 +2185,19 @@
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>36425</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>45247</v>
       </c>
-      <c r="E85" s="3">
-        <v>3</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85" s="2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="1"/>
@@ -2202,19 +2206,19 @@
       <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>36425</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>45245</v>
       </c>
-      <c r="E86" s="3">
-        <v>3</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" s="1"/>
@@ -2223,19 +2227,19 @@
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>36425</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>45228</v>
       </c>
-      <c r="E87" s="3">
-        <v>3</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="1"/>
@@ -2244,19 +2248,19 @@
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>36425</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>45212</v>
       </c>
-      <c r="E88" s="3">
-        <v>3</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88" s="2">
+        <v>3</v>
+      </c>
+      <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" s="1"/>
@@ -2265,19 +2269,19 @@
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>36425</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>45212</v>
       </c>
-      <c r="E89" s="3">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89" s="2">
+        <v>3</v>
+      </c>
+      <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" s="1"/>
@@ -2286,19 +2290,19 @@
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>36425</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>45212</v>
       </c>
-      <c r="E90" s="3">
-        <v>3</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90" s="2">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="1"/>
@@ -2307,19 +2311,19 @@
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>36425</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>45212</v>
       </c>
-      <c r="E91" s="3">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" s="2">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" s="1"/>
@@ -2328,19 +2332,19 @@
       <c r="A92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>36425</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>45212</v>
       </c>
-      <c r="E92" s="3">
-        <v>3</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92" s="2">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="1"/>
@@ -2349,19 +2353,19 @@
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>36425</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>45197</v>
       </c>
-      <c r="E93" s="3">
-        <v>3</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="E93" s="2">
+        <v>3</v>
+      </c>
+      <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" s="1"/>
@@ -2370,19 +2374,19 @@
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>36425</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>45195</v>
       </c>
-      <c r="E94" s="3">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E94" s="2">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="1"/>
@@ -2391,19 +2395,19 @@
       <c r="A95" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>36425</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>45195</v>
       </c>
-      <c r="E95" s="3">
-        <v>3</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95" s="2">
+        <v>3</v>
+      </c>
+      <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" s="1"/>
@@ -2412,19 +2416,19 @@
       <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>36425</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>45194</v>
       </c>
-      <c r="E96" s="3">
-        <v>3</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="E96" s="2">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="1"/>
@@ -2433,19 +2437,19 @@
       <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>36425</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>45192</v>
       </c>
-      <c r="E97" s="3">
-        <v>3</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E97" s="2">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="1"/>
@@ -2454,19 +2458,19 @@
       <c r="A98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>36425</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>45151</v>
       </c>
-      <c r="E98" s="3">
-        <v>3</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98" s="2">
+        <v>3</v>
+      </c>
+      <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="1"/>
@@ -2475,19 +2479,19 @@
       <c r="A99" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>36425</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>45145</v>
       </c>
-      <c r="E99" s="3">
-        <v>3</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99" s="2">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" s="1"/>
@@ -2496,19 +2500,19 @@
       <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>36425</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>45145</v>
       </c>
-      <c r="E100" s="3">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100" s="2">
+        <v>3</v>
+      </c>
+      <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" s="1"/>
@@ -2517,19 +2521,19 @@
       <c r="A101" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>36425</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>45119</v>
       </c>
-      <c r="E101" s="3">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="E101" s="2">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="1"/>
@@ -2538,19 +2542,19 @@
       <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>36425</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>45119</v>
       </c>
-      <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102" s="2">
+        <v>3</v>
+      </c>
+      <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" s="1"/>
@@ -2559,19 +2563,19 @@
       <c r="A103" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>36425</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>45116</v>
       </c>
-      <c r="E103" s="3">
-        <v>3</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103" s="2">
+        <v>3</v>
+      </c>
+      <c r="F103" s="2">
         <v>1</v>
       </c>
       <c r="G103" s="1"/>
@@ -2580,19 +2584,19 @@
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>36425</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>45114</v>
       </c>
-      <c r="E104" s="3">
-        <v>3</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="E104" s="2">
+        <v>3</v>
+      </c>
+      <c r="F104" s="2">
         <v>1</v>
       </c>
       <c r="G104" s="1"/>
@@ -2601,19 +2605,19 @@
       <c r="A105" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>36425</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>45110</v>
       </c>
-      <c r="E105" s="3">
-        <v>3</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105" s="2">
+        <v>3</v>
+      </c>
+      <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" s="1"/>
@@ -2622,19 +2626,19 @@
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>36425</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>45108</v>
       </c>
-      <c r="E106" s="3">
-        <v>3</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="E106" s="2">
+        <v>3</v>
+      </c>
+      <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" s="1"/>
@@ -2643,19 +2647,19 @@
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>36425</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>45108</v>
       </c>
-      <c r="E107" s="3">
-        <v>3</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E107" s="2">
+        <v>3</v>
+      </c>
+      <c r="F107" s="2">
         <v>1</v>
       </c>
       <c r="G107" s="1"/>
